--- a/output/instance_SMALL_scenario_2/variable_values0.xlsx
+++ b/output/instance_SMALL_scenario_2/variable_values0.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>961000</v>
+        <v>100000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1105624.11978138</v>
+        <v>149719.2962476211</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1220175.968283259</v>
+        <v>205115.2975362389</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1358540.601271105</v>
+        <v>286880.2512638715</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1440462.734973105</v>
+        <v>362876.5159968243</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1517899.187643947</v>
+        <v>426283.6410504524</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1622120.136181514</v>
+        <v>484106.5002119052</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>1771513.231084703</v>
+        <v>575207.2337563735</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>2007552.125320857</v>
+        <v>748419.6984793383</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>2345985.966637149</v>
+        <v>981737.08678007</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>2748739.603943163</v>
+        <v>1392391.487609441</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>3157092.511233206</v>
+        <v>1763378.455263808</v>
       </c>
       <c r="E13" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>2537537.922008957</v>
+        <v>2105576.194519664</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -866,10 +866,10 @@
         <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>2784245.83799016</v>
+        <v>2432921.610176913</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.656612873077393e-10</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -894,10 +894,10 @@
         <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>2997860.793448069</v>
+        <v>2737753.303669841</v>
       </c>
       <c r="E16" t="n">
-        <v>3191898.733071147</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -917,17 +917,15 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n">
-        <v>17</v>
-      </c>
+      <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>100000</v>
+        <v>3001958.835856263</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1020347.766710203</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -936,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -949,10 +947,10 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>121463.9268309282</v>
+        <v>2191731.963245556</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -964,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -977,10 +975,10 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>156183.5410479728</v>
+        <v>2303678.610132786</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -992,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1005,10 +1003,10 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>251707.2715245817</v>
+        <v>2451799.941623333</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1020,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1033,13 +1031,13 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>429000.3006218122</v>
+        <v>2703608.76934442</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>9.313225746154785e-10</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1048,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2.957550719264141e-16</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1061,13 +1059,13 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>685159.6528958324</v>
+        <v>3120000</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1095945.820962272</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1076,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1089,10 +1087,10 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>880215.7533845545</v>
+        <v>2608600.902327394</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1117,13 +1115,13 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>1051720.572715155</v>
+        <v>3120000</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>999999.9999999995</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1132,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1145,13 +1143,13 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>1226502.110048678</v>
+        <v>2613639.464210969</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2928769.404880663</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1160,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1171,12 +1169,14 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
+      <c r="B26" s="1" t="n">
+        <v>33</v>
+      </c>
       <c r="C26" s="1" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
-        <v>1366045.366356833</v>
+        <v>93654.68111342471</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="n"/>
       <c r="C27" s="1" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
-        <v>1535623.355370348</v>
+        <v>181761.443416724</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
-        <v>1636633.982281059</v>
+        <v>301548.7666315454</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D29" t="n">
-        <v>1732446.74110601</v>
+        <v>492325.4053305052</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D30" t="n">
-        <v>1861750.329946285</v>
+        <v>703156.5917084649</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1313,10 +1313,10 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D31" t="n">
-        <v>2047776.16003869</v>
+        <v>908588.0871190228</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="n"/>
       <c r="C32" s="1" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D32" t="n">
-        <v>2343202.052232157</v>
+        <v>1037146.954849158</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="n"/>
       <c r="C33" s="1" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D33" t="n">
-        <v>2769681.274128287</v>
+        <v>1129955.180256736</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1397,13 +1397,13 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="n"/>
       <c r="C34" s="1" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D34" t="n">
-        <v>3280985.371916838</v>
+        <v>1209437.596829429</v>
       </c>
       <c r="E34" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="n"/>
       <c r="C35" s="1" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D35" t="n">
-        <v>2802898.307567193</v>
+        <v>1303934.725118715</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1453,10 +1453,10 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D36" t="n">
-        <v>3163272.345789247</v>
+        <v>1516406.508554912</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1481,13 +1481,13 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>3490509.503651085</v>
+        <v>1827350.597805918</v>
       </c>
       <c r="E37" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1509,13 +1509,13 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D38" t="n">
-        <v>2774874.516075149</v>
+        <v>2273584.801523334</v>
       </c>
       <c r="E38" t="n">
-        <v>2965303.079566944</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1535,17 +1535,15 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n">
-        <v>41</v>
-      </c>
+      <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D39" t="n">
-        <v>100000</v>
+        <v>2872872.712005986</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1085511.656074277</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -1554,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1567,10 +1565,10 @@
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D40" t="n">
-        <v>121463.9268309282</v>
+        <v>2410093.777323257</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1582,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1595,13 +1593,13 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="n"/>
       <c r="C41" s="1" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D41" t="n">
-        <v>156183.5410479728</v>
+        <v>2784602.740593146</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.396983861923218e-09</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1610,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>4.324090890167549e-16</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1623,13 +1621,13 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D42" t="n">
-        <v>251707.2715245817</v>
+        <v>3120000</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -1638,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1651,10 +1649,10 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D43" t="n">
-        <v>429000.3006218122</v>
+        <v>2414337.488174047</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1679,10 +1677,10 @@
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D44" t="n">
-        <v>685159.6528958324</v>
+        <v>2598904.972198078</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1707,10 +1705,10 @@
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D45" t="n">
-        <v>880215.7533845545</v>
+        <v>2743897.276880149</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1735,13 +1733,13 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D46" t="n">
-        <v>1051720.572715155</v>
+        <v>2855977.582496758</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3003502.939640058</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -1750,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -1761,12 +1759,14 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
+      <c r="B47" s="1" t="n">
+        <v>56</v>
+      </c>
       <c r="C47" s="1" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D47" t="n">
-        <v>1226502.110048678</v>
+        <v>100000</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1791,10 +1791,10 @@
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="n"/>
       <c r="C48" s="1" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D48" t="n">
-        <v>1366045.366356833</v>
+        <v>183241.3385003973</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D49" t="n">
-        <v>1535623.355370348</v>
+        <v>329277.0520525567</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1847,10 +1847,10 @@
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="n"/>
       <c r="C50" s="1" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D50" t="n">
-        <v>1636633.982281059</v>
+        <v>593268.5788038087</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1868,211 +1868,15 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1732446.74110601</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1861750.329946285</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2047776.16003869</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2343202.052232157</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2769681.274128287</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3280985.371916838</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2802898.307567193</v>
-      </c>
-      <c r="E57" t="n">
-        <v>3248760.973263006</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A57"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="B17:B38"/>
-    <mergeCell ref="B39:B57"/>
+    <mergeCell ref="A2:A50"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="B26:B46"/>
+    <mergeCell ref="B47:B50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
